--- a/関連帳票/データベース/論理設計/【xml】pcbd.xlsx
+++ b/関連帳票/データベース/論理設計/【xml】pcbd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\データベース\論理設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68033426-94DE-4354-A06B-A706FAA34F16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19AC040-ECAE-458B-BEA1-94BBD0A260FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="4" r:id="rId1"/>
@@ -32,30 +32,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>lineNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>num</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -74,45 +60,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sum_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sum_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sum_3</t>
-  </si>
-  <si>
-    <t>sum_4</t>
-  </si>
-  <si>
-    <t>sum_5</t>
-  </si>
-  <si>
-    <t>sum_6</t>
-  </si>
-  <si>
-    <t>sum_7</t>
-  </si>
-  <si>
-    <t>sum_8</t>
-  </si>
-  <si>
-    <t>sum_9</t>
-  </si>
-  <si>
-    <t>sum_10</t>
-  </si>
-  <si>
-    <t>sum_11</t>
-  </si>
-  <si>
-    <t>tact_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>memo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,10 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>time_sum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>連番</t>
     <rPh sb="0" eb="2">
       <t>レンバン</t>
@@ -162,10 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データが生成された時の日付（〇〇〇〇/〇〇/〇〇）</t>
     <rPh sb="4" eb="6">
       <t>セイセイ</t>
@@ -258,28 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>当日の全ての生産合計数（sum_1～sum_11の合計）</t>
-    <rPh sb="0" eb="2">
-      <t>トウジツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>timeが8:15～9:15の生産合計数</t>
     <rPh sb="15" eb="17">
       <t>セイサン</t>
@@ -436,6 +353,154 @@
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProductionInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査機から出力されるCSVデータ</t>
+    <rPh sb="0" eb="3">
+      <t>ケンサキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InspectionMachineData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProdctuionSumAll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProdctuionSum1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProdctuionSum2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProdctuionSum3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProdctuionSum4</t>
+  </si>
+  <si>
+    <t>dayProdctuionSum5</t>
+  </si>
+  <si>
+    <t>dayProdctuionSum6</t>
+  </si>
+  <si>
+    <t>dayProdctuionSum7</t>
+  </si>
+  <si>
+    <t>dayProdctuionSum8</t>
+  </si>
+  <si>
+    <t>dayProdctuionSum9</t>
+  </si>
+  <si>
+    <t>dayProdctuionSum10</t>
+  </si>
+  <si>
+    <t>dayProdctuionSum11</t>
+  </si>
+  <si>
+    <t>dayProdctionTimeSum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProdctionTactTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProdctuionID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMDLineNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMDProductNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProduceListDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProduceListTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProductionDateTimeList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計値、平均値の算出（データ：1個）</t>
+    <rPh sb="0" eb="3">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを取得したときの日付と時間（データ：多数）</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日の全ての生産合計数（dayProdctionSum1～dayProdctionSum11の合計）</t>
+    <rPh sb="0" eb="2">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayProduceListSeqNum</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -514,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -667,6 +732,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -676,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,9 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -710,9 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -749,9 +826,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,6 +875,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,8 +926,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -850,7 +945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="184150" y="4972050"/>
-          <a:ext cx="3613150" cy="6045200"/>
+          <a:ext cx="4470400" cy="6045200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -906,7 +1001,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  &lt;productNo&gt;17K192-0000&lt;/productNo&gt;</a:t>
+            <a:t>  &lt;InspectionMachineData&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -919,7 +1014,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  &lt;lineNo&gt;L-001&lt;/lineNo&gt;</a:t>
+            <a:t>      &lt;productNo&gt;17K192-0000&lt;/productNo&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -932,54 +1027,33 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  &lt;info&gt;</a:t>
+            <a:t>      &lt;lineNo&gt;L-001&lt;/lineNo&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    &lt;id&gt;20190923000001&lt;/id&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          &lt;dayProductionInfo&gt;</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    &lt;sum_all&gt;1232&lt;/sum_all&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    &lt;sum_1&gt;112&lt;/sum_1&gt;</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;id&gt;20190923000001&lt;/id&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1010,7 +1084,118 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_2&gt;112&lt;/sum_2&gt;</a:t>
+            <a:t>              &lt;dayProdctuionSumAll&gt;1232&lt;/dayProdctuionSumAll&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum1&gt;112&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctuionSum1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum2&gt;112&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctuionSum2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum3&gt;112&lt;/dayProdctuionSum3&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1044,7 +1229,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_3&gt;112&lt;/sum_3&gt;</a:t>
+            <a:t>              &lt;dayProdctuionSum4&gt;112&lt;/dayProdctuionSum4&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1078,7 +1263,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_4&gt;112&lt;/sum_4&gt;</a:t>
+            <a:t>              &lt;dayProdctuionSum5&gt;112&lt;/dayProdctuionSum5&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1112,7 +1297,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_5&gt;112&lt;/sum_5&gt;</a:t>
+            <a:t>              &lt;dayProdctuionSum6&gt;112&lt;/dayProdctuionSum6&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1146,7 +1331,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_6&gt;112&lt;/sum_6&gt;</a:t>
+            <a:t>              &lt;dayProdctuionSum7&gt;112&lt;/dayProdctuionSum7&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1180,7 +1365,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_7&gt;112&lt;/sum_7&gt;</a:t>
+            <a:t>              &lt;dayProdctuionSum8&gt;112&lt;/dayProdctuionSum8&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1214,7 +1399,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_8&gt;112&lt;/sum_8&gt;</a:t>
+            <a:t>              &lt;dayProdctuionSum9&gt;112&lt;/dayProdctuionSum9&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1248,7 +1433,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_9&gt;112&lt;/sum_9&gt;</a:t>
+            <a:t>              &lt;dayProdctuionSum10&gt;112&lt;/dayProdctuionSum10&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1282,7 +1467,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_10&gt;112&lt;/sum_10&gt;</a:t>
+            <a:t>              &lt;dayProdctuionSum11&gt;112&lt;/dayProdctuionSum11&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1316,29 +1501,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;sum_11&gt;112&lt;/sum_11&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>              &lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1347,7 +1513,51 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;time_sum&gt;39,600&lt;/time_sum&gt;</a:t>
+            <a:t>dayProdctionTimeSum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;39,600&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctionTimeSum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1363,18 +1573,45 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;tact_time&gt;32.1</a:t>
+            <a:t>　           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctionTactTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;32.1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -1396,7 +1633,34 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;/tact_time&gt;</a:t>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctionTactTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1409,7 +1673,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    </a:t>
+            <a:t>                  &lt;dayProdctionList&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1422,7 +1686,83 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;information&gt;</a:t>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListSeqNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;1&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListSeqNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1435,7 +1775,61 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      &lt;num&gt;1&lt;/num&gt;</a:t>
+            <a:t>                      &lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;12:40&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1448,20 +1842,74 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      &lt;time&gt;12:40&lt;/time&gt;</a:t>
+            <a:t>                      &lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>      &lt;aaa&gt;asdfas&lt;/aaa&gt;</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                  &lt;/dayProdctionList&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1474,7 +1922,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;/information&gt;</a:t>
+            <a:t>          &lt;/dayProdctionInfo&gt;      </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1487,72 +1935,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;information&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>      &lt;sum&gt;2&lt;/sum&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>      &lt;time&gt;12:42&lt;/time&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>      &lt;aaa&gt;asdfas&lt;/aaa&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    &lt;/information&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  &lt;/info&gt;</a:t>
+            <a:t>  &lt;/InspectionMachineData&gt;    </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1846,561 +2229,561 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.90625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="131.6328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="4.26953125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.6328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>61</v>
+      <c r="A1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="26">
         <v>43731</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31" t="s">
-        <v>62</v>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="34"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="34"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="34"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="34"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="34"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="34"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="34"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="34"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="34"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="34"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="34"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="34"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="34"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="34"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="34"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="34"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="34"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="34"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="34"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="38"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="34"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="34"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="39"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="36"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="36"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="34"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="31"/>
     </row>
     <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
     </row>
     <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="36"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="36"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
     </row>
     <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="36"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="28"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="36"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="33"/>
     </row>
     <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="36"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="33"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="36"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="36"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="33"/>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="36"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="36"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="33"/>
     </row>
     <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="36"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="33"/>
     </row>
     <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="36"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="36"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="33"/>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="36"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2413,25 +2796,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="R1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2447,516 +2830,524 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
-      <c r="R2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="3"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
       <c r="R5">
         <v>1</v>
       </c>
+      <c r="U5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
       <c r="R6">
         <v>1</v>
       </c>
+      <c r="U6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="U7" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="9"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
       <c r="R20">
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="9"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2971,91 +3362,97 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
       <c r="R22" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="U22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="9"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
       <c r="R23">
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="9"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="U24" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="9"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="8"/>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3067,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F16C0EF-BC63-41A5-A8A9-AA092D51EE77}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3083,194 +3480,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="J1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="A1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="J1" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>41</v>
+      <c r="K2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="15">
         <v>2019092300001</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="16">
         <v>43731</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>0.44126157407407413</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="21">
         <v>1232</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>112</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="21">
         <v>39600</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>32.14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>2019092300002</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="13">
         <v>43731</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>0.44137731481481479</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>2019092300003</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13">
         <v>43731</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>0.44149305555555557</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>2019092300004</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13">
         <v>43731</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>0.44153935185185184</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>2019092300005</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13">
         <v>43731</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>0.44158564814814816</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>2019092300006</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13">
         <v>43731</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>0.44167824074074075</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>2019092300007</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13">
         <v>43731</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>0.44175925925925924</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>2019092300008</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13">
         <v>43731</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>0.4418287037037037</v>
       </c>
     </row>

--- a/関連帳票/データベース/論理設計/【xml】pcbd.xlsx
+++ b/関連帳票/データベース/論理設計/【xml】pcbd.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\データベース\論理設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19AC040-ECAE-458B-BEA1-94BBD0A260FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524DB6C7-4817-4ECC-B7A7-B9A3B66AC332}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="4" r:id="rId1"/>
     <sheet name="xml" sheetId="1" r:id="rId2"/>
     <sheet name="テーブル例" sheetId="2" r:id="rId3"/>
+    <sheet name="20191001_xml" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
   <si>
     <t>root</t>
   </si>
@@ -501,6 +502,96 @@
   </si>
   <si>
     <t>dayProduceListSeqNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登場回数</t>
+    <rPh sb="0" eb="4">
+      <t>トウジョウカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白不可</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0または1</t>
+  </si>
+  <si>
+    <t>0以上</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMDEmployeeCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMDEmployeeCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>201903 , 201988 , 201944</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>201903 , 201944</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -547,7 +638,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,8 +669,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -750,6 +859,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -759,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,16 +1138,145 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_データベース仕様書" xfId="1" xr:uid="{CFDD61E5-4039-4E88-998F-A8CB3C622C30}"/>
+    <cellStyle name="標準_データベース仕様書" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -936,7 +1311,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,6 +1321,1048 @@
         <a:xfrm>
           <a:off x="184150" y="4972050"/>
           <a:ext cx="4470400" cy="6045200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;root&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;InspectionMachineData&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;productNo&gt;17K192-0000&lt;/productNo&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;lineNo&gt;L-001&lt;/lineNo&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          &lt;dayProductionInfo&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;id&gt;20190923000001&lt;/id&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSumAll&gt;1232&lt;/dayProdctuionSumAll&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum1&gt;112&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctuionSum1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum2&gt;112&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctuionSum2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum3&gt;112&lt;/dayProdctuionSum3&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum4&gt;112&lt;/dayProdctuionSum4&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum5&gt;112&lt;/dayProdctuionSum5&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum6&gt;112&lt;/dayProdctuionSum6&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum7&gt;112&lt;/dayProdctuionSum7&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum8&gt;112&lt;/dayProdctuionSum8&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum9&gt;112&lt;/dayProdctuionSum9&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum10&gt;112&lt;/dayProdctuionSum10&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;dayProdctuionSum11&gt;112&lt;/dayProdctuionSum11&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              &lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctionTimeSum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;39,600&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctionTimeSum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctionTactTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;32.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProdctionTactTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                  &lt;dayProdctionList&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListSeqNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;1&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListSeqNum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                      &lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;12:40&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                      &lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dayProduceListTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                  &lt;/dayProdctionList&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          &lt;/dayProdctionInfo&gt;      </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;/InspectionMachineData&gt;    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/root&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="184150" y="4806950"/>
+          <a:ext cx="4692650" cy="4962525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2220,7 +3637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EDB659-992B-4AA5-AFCB-717DE41DB43A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2230,7 +3647,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.26953125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="38" customWidth="1"/>
     <col min="3" max="3" width="35.7265625" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.90625" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="131.6328125" style="24" bestFit="1" customWidth="1"/>
@@ -2793,11 +4210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2860,7 +4277,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="44"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="6" t="s">
         <v>62</v>
       </c>
@@ -2887,7 +4304,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
-      <c r="B5" s="44"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
@@ -3461,11 +4878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F16C0EF-BC63-41A5-A8A9-AA092D51EE77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="H17" sqref="A15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3474,25 +4891,25 @@
     <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="J1" s="45" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -3504,12 +4921,17 @@
       <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="68" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
       <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
@@ -3539,6 +4961,11 @@
       <c r="E3" s="17">
         <v>0.44126157407407413</v>
       </c>
+      <c r="F3" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="J3" s="21">
         <v>1232</v>
       </c>
@@ -3568,6 +4995,11 @@
       <c r="E4" s="14">
         <v>0.44137731481481479</v>
       </c>
+      <c r="F4" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
@@ -3585,6 +5017,11 @@
       <c r="E5" s="14">
         <v>0.44149305555555557</v>
       </c>
+      <c r="F5" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
@@ -3602,6 +5039,11 @@
       <c r="E6" s="14">
         <v>0.44153935185185184</v>
       </c>
+      <c r="F6" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
@@ -3619,6 +5061,11 @@
       <c r="E7" s="14">
         <v>0.44158564814814816</v>
       </c>
+      <c r="F7" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
@@ -3636,6 +5083,11 @@
       <c r="E8" s="14">
         <v>0.44167824074074075</v>
       </c>
+      <c r="F8" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
@@ -3653,6 +5105,11 @@
       <c r="E9" s="14">
         <v>0.44175925925925924</v>
       </c>
+      <c r="F9" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
@@ -3670,13 +5127,952 @@
       <c r="E10" s="14">
         <v>0.4418287037037037</v>
       </c>
+      <c r="F10" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="11">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:U27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="2.6328125" customWidth="1"/>
+    <col min="7" max="7" width="2.6328125" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="67.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="85">
+        <v>1</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="59">
+        <v>1</v>
+      </c>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="60"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="83">
+        <v>2</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="61">
+        <v>1</v>
+      </c>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="83">
+        <v>3</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="63">
+        <v>1</v>
+      </c>
+      <c r="S5" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="83">
+        <v>4</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="63">
+        <v>1</v>
+      </c>
+      <c r="S6" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="85">
+        <v>5</v>
+      </c>
+      <c r="B7" s="86"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" s="71"/>
+      <c r="U7" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="83">
+        <v>6</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="59"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="83">
+        <v>7</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="63">
+        <v>1</v>
+      </c>
+      <c r="S9" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="83">
+        <v>8</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="63">
+        <v>1</v>
+      </c>
+      <c r="S10" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="65"/>
+      <c r="U10" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="85">
+        <v>9</v>
+      </c>
+      <c r="B11" s="86"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="63">
+        <v>1</v>
+      </c>
+      <c r="S11" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="65"/>
+      <c r="U11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="83">
+        <v>10</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="63">
+        <v>1</v>
+      </c>
+      <c r="S12" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" s="65"/>
+      <c r="U12" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="83">
+        <v>11</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="63">
+        <v>1</v>
+      </c>
+      <c r="S13" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" s="65"/>
+      <c r="U13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="83">
+        <v>12</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="63">
+        <v>1</v>
+      </c>
+      <c r="S14" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="65"/>
+      <c r="U14" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="85">
+        <v>13</v>
+      </c>
+      <c r="B15" s="86"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="63">
+        <v>1</v>
+      </c>
+      <c r="S15" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T15" s="65"/>
+      <c r="U15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="83">
+        <v>14</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="63">
+        <v>1</v>
+      </c>
+      <c r="S16" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" s="65"/>
+      <c r="U16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="83">
+        <v>15</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="63">
+        <v>1</v>
+      </c>
+      <c r="S17" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="65"/>
+      <c r="U17" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="83">
+        <v>16</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="63">
+        <v>1</v>
+      </c>
+      <c r="S18" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T18" s="65"/>
+      <c r="U18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="85">
+        <v>17</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="63">
+        <v>1</v>
+      </c>
+      <c r="S19" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" s="65"/>
+      <c r="U19" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="83">
+        <v>18</v>
+      </c>
+      <c r="B20" s="84"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="63">
+        <v>1</v>
+      </c>
+      <c r="S20" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T20" s="65"/>
+      <c r="U20" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="83">
+        <v>19</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="63">
+        <v>1</v>
+      </c>
+      <c r="S21" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T21" s="65"/>
+      <c r="U21" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="83">
+        <v>20</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="63">
+        <v>1</v>
+      </c>
+      <c r="S22" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="T22" s="65"/>
+      <c r="U22" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="85">
+        <v>21</v>
+      </c>
+      <c r="B23" s="86"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="63">
+        <v>1</v>
+      </c>
+      <c r="S23" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="65"/>
+      <c r="U23" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="83">
+        <v>22</v>
+      </c>
+      <c r="B24" s="84"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="83">
+        <v>23</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="63">
+        <v>1</v>
+      </c>
+      <c r="S25" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="T25" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="83">
+        <v>24</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="63">
+        <v>1</v>
+      </c>
+      <c r="S26" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="T26" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="85">
+        <v>25</v>
+      </c>
+      <c r="B27" s="86"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="63">
+        <v>1</v>
+      </c>
+      <c r="S27" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R27" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"0または1,1,0以上,1以上,N固定"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>